--- a/classfiers/nano/svm/smote/nano-svm-linear-results.xlsx
+++ b/classfiers/nano/svm/smote/nano-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9951690821256038</v>
+        <v>0.95</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9671361502347418</v>
+        <v>0.9812206572769953</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9809523809523809</v>
+        <v>0.9653579676674364</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9989860918248141</v>
+        <v>0.9860257003680928</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.8828451882845189</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9906103286384976</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9336283185840708</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9636976790319381</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9508928571428571</v>
+        <v>0.8267716535433071</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9748283752860412</v>
+        <v>0.8993576017130622</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9974652295620358</v>
+        <v>0.942802354030285</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9551569506726457</v>
+        <v>0.8589211618257261</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.971830985915493</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9770642201834863</v>
+        <v>0.9118942731277533</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9968480680640965</v>
+        <v>0.9549472106504442</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9770642201834863</v>
+        <v>0.6742671009771987</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.971830985915493</v>
       </c>
       <c r="D6" t="n">
-        <v>0.988399071925754</v>
+        <v>0.7961538461538462</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9989199673786064</v>
+        <v>0.9340739271308603</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9756566220249185</v>
+        <v>0.8385610209261503</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9934272300469484</v>
+        <v>0.9802816901408452</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9842488096695323</v>
+        <v>0.9012784014492338</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9984438713659106</v>
+        <v>0.9563093742423241</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/nano/svm/smote/nano-svm-linear-results.xlsx
+++ b/classfiers/nano/svm/smote/nano-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.95</v>
+        <v>0.9576719576719577</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9812206572769953</v>
+        <v>0.9329896907216495</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9653579676674364</v>
+        <v>0.9451697127937336</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9860257003680928</v>
+        <v>0.9845095121691997</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8828451882845189</v>
+        <v>0.8883495145631068</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9906103286384976</v>
+        <v>0.9481865284974094</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9336283185840708</v>
+        <v>0.9172932330827068</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9636976790319381</v>
+        <v>0.9689119170984456</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8267716535433071</v>
+        <v>0.7962962962962963</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9859154929577465</v>
+        <v>0.8911917098445595</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8993576017130622</v>
+        <v>0.8410757946210268</v>
       </c>
       <c r="E4" t="n">
-        <v>0.942802354030285</v>
+        <v>0.9387586133219379</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8589211618257261</v>
+        <v>0.883177570093458</v>
       </c>
       <c r="C5" t="n">
-        <v>0.971830985915493</v>
+        <v>0.9742268041237113</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9118942731277533</v>
+        <v>0.9264705882352942</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9549472106504442</v>
+        <v>0.9560653811228033</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6742671009771987</v>
+        <v>0.6548042704626335</v>
       </c>
       <c r="C6" t="n">
-        <v>0.971830985915493</v>
+        <v>0.9484536082474226</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7961538461538462</v>
+        <v>0.7747368421052633</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9340739271308603</v>
+        <v>0.901741359970087</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8385610209261503</v>
+        <v>0.8360599218174904</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9802816901408452</v>
+        <v>0.9390096682869504</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9012784014492338</v>
+        <v>0.880949234167605</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9563093742423241</v>
+        <v>0.9499973567364947</v>
       </c>
     </row>
   </sheetData>
